--- a/Relational Databases/Week02 - Data Dictionary FBN - START.xlsx
+++ b/Relational Databases/Week02 - Data Dictionary FBN - START.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2023-2024 - Semester 01\EC147613 - Ful Stack Course - THURS 9-1 (online) - NOVEMBER 2023 - JANUARY 2024 5th SPRINT\Week02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\EC-Codespace\Codespace\Relational Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6796E2-A911-4DFE-97CC-0976CC79E36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5817B1-F2C1-415D-9B3F-D63F23B41752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t>attributes</t>
   </si>
@@ -56,7 +45,193 @@
     <t>NULL or NOT NULL</t>
   </si>
   <si>
-    <t xml:space="preserve">TABLE: </t>
+    <t>TABLE: customer</t>
+  </si>
+  <si>
+    <t>customerID</t>
+  </si>
+  <si>
+    <t>TABLE: employee</t>
+  </si>
+  <si>
+    <t>TABLE: store</t>
+  </si>
+  <si>
+    <t>TABLE: item</t>
+  </si>
+  <si>
+    <t>TABLE: order</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>promo-emails</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>list of every order customer has placed, by id number</t>
+  </si>
+  <si>
+    <t>order 1, order 16</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>full address including postcode</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>first and last name of customer</t>
+  </si>
+  <si>
+    <t>email address</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>true or false - customer has signed up for promotional emails</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>list of training courses</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>list of employee skills</t>
+  </si>
+  <si>
+    <t>national insurance number</t>
+  </si>
+  <si>
+    <t>NInumber</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>is passport scanned?</t>
+  </si>
+  <si>
+    <t>drivingLicence</t>
+  </si>
+  <si>
+    <t>is drivers licence scanned?</t>
+  </si>
+  <si>
+    <t>payRate</t>
+  </si>
+  <si>
+    <t>hourly pay rate</t>
+  </si>
+  <si>
+    <t>storeID</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>what items does the store have in stock</t>
+  </si>
+  <si>
+    <t>which employees work at this store</t>
+  </si>
+  <si>
+    <t>where is the store</t>
+  </si>
+  <si>
+    <t>itemID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>name of product</t>
+  </si>
+  <si>
+    <t>type of item (eg. Side, main, drink)</t>
+  </si>
+  <si>
+    <t>price of item</t>
+  </si>
+  <si>
+    <t>orderID</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>payment method</t>
+  </si>
+  <si>
+    <t>id of customer making order</t>
+  </si>
+  <si>
+    <t>id of employee taking order</t>
+  </si>
+  <si>
+    <t>id of store employee works at</t>
+  </si>
+  <si>
+    <t>items in order</t>
+  </si>
+  <si>
+    <t>date and time of order</t>
+  </si>
+  <si>
+    <t>how was order paid for</t>
   </si>
 </sst>
 </file>
@@ -124,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +320,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A324CAB2-490B-426D-AB2D-B48BBA878142}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="F47" sqref="A45:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,206 +686,323 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>5</v>
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -714,15 +1010,329 @@
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,6 +1341,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1A36C221400BA48A64F7836A8CDACFE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3471362ec8caebe4b8bca09a68b414ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="686b0f6e-6d48-43de-ad91-66e3b1902bae" xmlns:ns3="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9794a080f4a3828665e0aef47738a002" ns2:_="" ns3:_="">
     <xsd:import namespace="686b0f6e-6d48-43de-ad91-66e3b1902bae"/>
@@ -953,15 +1572,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -974,13 +1584,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE9BA83D-37D5-42C1-8A49-92DD8D419B26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9EE98E3-241C-41F7-8AE8-CF0567841C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9EE98E3-241C-41F7-8AE8-CF0567841C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE9BA83D-37D5-42C1-8A49-92DD8D419B26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="686b0f6e-6d48-43de-ad91-66e3b1902bae"/>
+    <ds:schemaRef ds:uri="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93BE2BD2-087C-48AE-82C2-DDD7C2B20B1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93BE2BD2-087C-48AE-82C2-DDD7C2B20B1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="686b0f6e-6d48-43de-ad91-66e3b1902bae"/>
+    <ds:schemaRef ds:uri="9fd4c30f-5ab4-4746-a3a4-79b93f2803b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Relational Databases/Week02 - Data Dictionary FBN - START.xlsx
+++ b/Relational Databases/Week02 - Data Dictionary FBN - START.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\EC-Codespace\Codespace\Relational Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5817B1-F2C1-415D-9B3F-D63F23B41752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A152FBC8-0630-4904-89A6-8F21C781EFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F186737C-EDA2-46CA-9043-4A9927A471E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
   <si>
     <t>attributes</t>
   </si>
@@ -72,9 +72,6 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>orders</t>
-  </si>
-  <si>
     <t>promo-emails</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>list</t>
   </si>
   <si>
-    <t>list of every order customer has placed, by id number</t>
-  </si>
-  <si>
-    <t>order 1, order 16</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -165,18 +156,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>what items does the store have in stock</t>
-  </si>
-  <si>
-    <t>which employees work at this store</t>
-  </si>
-  <si>
     <t>where is the store</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -225,13 +201,34 @@
     <t>id of store employee works at</t>
   </si>
   <si>
-    <t>items in order</t>
-  </si>
-  <si>
     <t>date and time of order</t>
   </si>
   <si>
     <t>how was order paid for</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>TABLE: order-items</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>order-itemID</t>
+  </si>
+  <si>
+    <t>TABLE: store-items</t>
+  </si>
+  <si>
+    <t>store-itemID</t>
+  </si>
+  <si>
+    <t>stock level of items in store</t>
+  </si>
+  <si>
+    <t>stockTotal</t>
   </si>
 </sst>
 </file>
@@ -263,15 +260,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -294,12 +297,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -323,7 +337,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -639,19 +664,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A324CAB2-490B-426D-AB2D-B48BBA878142}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="F47" sqref="A45:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -659,7 +684,9 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
@@ -690,31 +717,31 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,15 +749,15 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,15 +765,15 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -754,15 +781,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -770,71 +797,73 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -845,31 +874,31 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="8" t="s">
@@ -877,77 +906,75 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
@@ -955,54 +982,50 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -1016,7 +1039,9 @@
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
@@ -1044,295 +1069,450 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3" t="s">
-        <v>30</v>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>5</v>
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3" t="s">
-        <v>30</v>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>5</v>
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="E69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
